--- a/Data/2022-07-28_Morphology_Assay_pvalues.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_pvalues.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,27 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Body length (µm)</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Body length (µm)</t>
+          <t>Heart Rate (BPM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (BPM)</t>
+          <t>Ejection fraction (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ejection fraction (%)</t>
+          <t>Number ISV (Count)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Number ISV (Count)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -484,347 +463,309 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8077150383050828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9241938822157678</v>
+        <v>0.1048840386868505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01946155991098307</v>
+        <v>0.01707571580961277</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02490488293945146</v>
+        <v>0.1429865865690697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01878117447965155</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8539401959464824</v>
+        <v>0.6613321345604537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9241938822157678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6661908079671156</v>
+        <v>0.01946155991098307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01147599422221806</v>
+        <v>0.02490488293945146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9026308388372587</v>
+        <v>0.01878117447965155</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3592385254948575</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.391792923510785</v>
+        <v>0.8539401959464824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6661908079671156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7233195931130021</v>
+        <v>0.01147599422221806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006241442803608344</v>
+        <v>0.9026308388372587</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2198326558099772</v>
+        <v>0.3592385254948575</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2100053490215614</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8317829381037092</v>
+        <v>0.391792923510785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7233195931130021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09755173387356976</v>
+        <v>0.006241442803608344</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001639768515056734</v>
+        <v>0.2198326558099772</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.2100053490215614</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3019782067750082</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2939114849879069</v>
+        <v>0.8317829381037092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.09755173387356976</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.001639768515056734</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.4034358268327601</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.009556731318344638</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.6048781137168378</v>
+        <v>0.3019782067750082</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7220424610451099</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.564257277941103</v>
+        <v>0.2939114849879069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4034358268327601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9137811707223961</v>
+        <v>0.009556731318344638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3454254489689802</v>
+        <v>0.6048781137168378</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7333107926333727</v>
+        <v>0.7220424610451099</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3522422812178828</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4864136413391559</v>
+        <v>0.564257277941103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9137811707223961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8038471232053614</v>
+        <v>0.3454254489689802</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5740288172000767</v>
+        <v>0.7333107926333727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4562028338837304</v>
+        <v>0.3522422812178828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9092112002221193</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1327616785752945</v>
+        <v>0.4864136413391559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8038471232053614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4871856215054471</v>
+        <v>0.5740288172000767</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7688519650150216</v>
+        <v>0.4562028338837304</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1602096100706547</v>
+        <v>0.9092112002221193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1034109127077447</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6537570577660501</v>
+        <v>0.1327616785752945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4871856215054471</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.7688519650150216</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.1602096100706547</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.1034109127077447</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
+        <v>0.6537570577660501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1467766899799145</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1198059079159992</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09666497944152211</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9092112002221193</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1261543044448941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1467766899799145</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1489146731787657</v>
+        <v>0.1198059079159992</v>
       </c>
       <c r="D12" t="n">
-        <v>0.186225349689204</v>
+        <v>0.09666497944152211</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5101749393801144</v>
+        <v>0.9092112002221193</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4161452593397242</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1576590123442658</v>
+        <v>0.1261543044448941</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1489146731787657</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03074084417829116</v>
+        <v>0.186225349689204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005545667315244056</v>
+        <v>0.5101749393801144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.12130652289018</v>
+        <v>0.4161452593397242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1600378082514268</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2800506150642205</v>
+        <v>0.1576590123442658</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.03074084417829116</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.005545667315244056</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.12130652289018</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1600378082514268</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2800506150642205</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.422923535459963e-11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.316144188344484e-09</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.500569587695617e-08</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.002004560961314217</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.171711682409215e-06</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
-        <v>0.5</v>
+      <c r="B15" t="n">
+        <v>2.447639247860544e-10</v>
       </c>
       <c r="C15" t="n">
-        <v>7.63219207098244e-08</v>
+        <v>1.096540216230658e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>2.621640046393628e-05</v>
+        <v>3.199855149445548e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02532866311262225</v>
+        <v>0.0002863983898780393</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002871726067224442</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.01395525688870547</v>
+        <v>5.026430214352325e-05</v>
       </c>
     </row>
     <row r="16">
@@ -833,22 +774,19 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+      <c r="B16" t="n">
+        <v>0.4654704588944648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4654704588944648</v>
+        <v>3.451116634089162e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>3.451116634089162e-06</v>
+        <v>0.1877948387384052</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1877948387384052</v>
+        <v>0.547057364204218</v>
       </c>
       <c r="F16" t="n">
-        <v>0.547057364204218</v>
-      </c>
-      <c r="G16" t="n">
         <v>0.883942122067261</v>
       </c>
     </row>
@@ -858,22 +796,19 @@
           <t>Ravuconazole_1D06</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+      <c r="B17" t="n">
+        <v>0.003708539119867315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003708539119867315</v>
+        <v>0.1576590123442658</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1576590123442658</v>
+        <v>0.02704291111752244</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02704291111752244</v>
+        <v>0.492339643620104</v>
       </c>
       <c r="F17" t="n">
-        <v>0.492339643620104</v>
-      </c>
-      <c r="G17" t="n">
         <v>0.1489146731787657</v>
       </c>
     </row>
@@ -883,22 +818,19 @@
           <t>Tizoxanide_1D07</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
+      <c r="B18" t="n">
+        <v>0.1576590123442658</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1576590123442658</v>
+        <v>0.1763065132303451</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1763065132303451</v>
+        <v>0.4056837949366163</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4056837949366163</v>
+        <v>0.3297636857262736</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3297636857262736</v>
-      </c>
-      <c r="G18" t="n">
         <v>0.6376433969579411</v>
       </c>
     </row>
@@ -908,22 +840,19 @@
           <t>Valproic Acid_1D08</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
+      <c r="B19" t="n">
+        <v>0.2018411463273689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2018411463273689</v>
+        <v>0.3700326217814945</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3700326217814945</v>
+        <v>0.6380665502227928</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6380665502227928</v>
+        <v>0.06701744339774392</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06701744339774392</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.2673783085194197</v>
       </c>
     </row>
@@ -933,22 +862,19 @@
           <t>Simeprevir_1D09</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>0.05272962876517547</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05272962876517547</v>
+        <v>0.01790380406832535</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01790380406832535</v>
+        <v>0.1826826235708774</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1826826235708774</v>
+        <v>0.6313448264993933</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6313448264993933</v>
-      </c>
-      <c r="G20" t="n">
         <v>0.1693788805733901</v>
       </c>
     </row>
@@ -958,22 +884,19 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>0.0103433063001453</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0103433063001453</v>
+        <v>0.1179356357964507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1179356357964507</v>
+        <v>0.6452094654316003</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6452094654316003</v>
+        <v>0.6494510142439311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6494510142439311</v>
-      </c>
-      <c r="G21" t="n">
         <v>0.1308423870230741</v>
       </c>
     </row>
@@ -983,22 +906,19 @@
           <t>Vidofludimus_1D11</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>0.6729786222428724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6729786222428724</v>
+        <v>0.3002141782049687</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3002141782049687</v>
+        <v>0.3579333698934</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3579333698934</v>
+        <v>0.7615654756986467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7615654756986467</v>
-      </c>
-      <c r="G22" t="n">
         <v>0.7298502540390175</v>
       </c>
     </row>
@@ -1008,22 +928,19 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>0.01481535530409961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01481535530409961</v>
+        <v>0.2325406544071081</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2325406544071081</v>
+        <v>0.1182585995065328</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1182585995065328</v>
+        <v>0.2713054378806831</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2713054378806831</v>
-      </c>
-      <c r="G23" t="n">
         <v>0.4900625707136851</v>
       </c>
     </row>
@@ -1033,22 +950,19 @@
           <t>Nafamostat_1E03</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>0.3550580898225097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3550580898225097</v>
+        <v>0.4928946040496128</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4928946040496128</v>
+        <v>0.08249583234103358</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08249583234103358</v>
+        <v>0.2503695352372854</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2503695352372854</v>
-      </c>
-      <c r="G24" t="n">
         <v>0.5375548074764223</v>
       </c>
     </row>
@@ -1058,22 +972,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>0.5916151625851847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5916151625851847</v>
+        <v>0.4354054072346276</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4354054072346276</v>
+        <v>0.003410487001818271</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003410487001818271</v>
+        <v>0.3770081361303883</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3770081361303883</v>
-      </c>
-      <c r="G25" t="n">
         <v>0.8902749141634188</v>
       </c>
     </row>
@@ -1083,22 +994,19 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>0.02271435648557752</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02271435648557752</v>
+        <v>0.08666894847712632</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08666894847712632</v>
+        <v>0.3737579242223206</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3737579242223206</v>
+        <v>0.6421776196429159</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6421776196429159</v>
-      </c>
-      <c r="G26" t="n">
         <v>0.9744023541799367</v>
       </c>
     </row>
@@ -1108,22 +1016,19 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>0.6068358232257332</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6068358232257332</v>
+        <v>0.3465671576612133</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3465671576612133</v>
+        <v>0.01594270882196579</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01594270882196579</v>
+        <v>0.4063482863978195</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4063482863978195</v>
-      </c>
-      <c r="G27" t="n">
         <v>0.4646160463998507</v>
       </c>
     </row>
@@ -1133,22 +1038,19 @@
           <t>Triparanol_1E07</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>0.4553106584941116</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4553106584941116</v>
+        <v>0.5321285767738109</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5321285767738109</v>
+        <v>0.03516902773868719</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03516902773868719</v>
+        <v>0.6474029564806199</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6474029564806199</v>
-      </c>
-      <c r="G28" t="n">
         <v>0.8768647191619858</v>
       </c>
     </row>
@@ -1158,22 +1060,19 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>0.008005739719970317</v>
       </c>
       <c r="C29" t="n">
-        <v>0.008005739719970317</v>
+        <v>0.4169000671394101</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4169000671394101</v>
+        <v>0.2102609464838567</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2102609464838567</v>
+        <v>0.9586929832128837</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9586929832128837</v>
-      </c>
-      <c r="G29" t="n">
         <v>0.1724936063635346</v>
       </c>
     </row>
@@ -1183,22 +1082,19 @@
           <t>Sofosbuvir_1E09</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.9365638916667738</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9365638916667738</v>
+        <v>0.01284673358976765</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01284673358976765</v>
+        <v>0.3269165355725512</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3269165355725512</v>
-      </c>
-      <c r="G30" t="n">
         <v>0.7244219885280205</v>
       </c>
     </row>
@@ -1208,22 +1104,19 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>0.6220078895726201</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6220078895726201</v>
+        <v>0.1834508483556516</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1834508483556516</v>
+        <v>0.05016105325702849</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05016105325702849</v>
+        <v>0.06388557911355938</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06388557911355938</v>
-      </c>
-      <c r="G31" t="n">
         <v>0.5827650980391876</v>
       </c>
     </row>
@@ -1233,22 +1126,19 @@
           <t>SMN-C3_1E11</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>0.8991199567740973</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8991199567740973</v>
+        <v>0.6295346690680274</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6295346690680274</v>
+        <v>0.1398460578323279</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1398460578323279</v>
+        <v>0.8283688489353837</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8283688489353837</v>
-      </c>
-      <c r="G32" t="n">
         <v>0.6623557433114529</v>
       </c>
     </row>
@@ -1258,22 +1148,19 @@
           <t>Valsartan_1F02</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0.6334384569678687</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6334384569678687</v>
+        <v>0.6891256075559776</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6891256075559776</v>
+        <v>0.01554001554001554</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01554001554001554</v>
+        <v>0.05497275014583354</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05497275014583354</v>
-      </c>
-      <c r="G33" t="n">
         <v>0.0675990675990676</v>
       </c>
     </row>
@@ -1283,22 +1170,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>0.03404343214347452</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03404343214347452</v>
+        <v>0.001512887466747595</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001512887466747595</v>
+        <v>0.09827195171994678</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09827195171994678</v>
+        <v>0.001036509565820647</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001036509565820647</v>
-      </c>
-      <c r="G34" t="n">
         <v>0.01349695605568359</v>
       </c>
     </row>
@@ -1308,22 +1192,19 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>0.02139471610925129</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02139471610925129</v>
+        <v>0.01093074558090539</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01093074558090539</v>
+        <v>0.4966758035508202</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4966758035508202</v>
+        <v>0.06728181312793129</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06728181312793129</v>
-      </c>
-      <c r="G35" t="n">
         <v>0.1393834844824834</v>
       </c>
     </row>
@@ -1333,22 +1214,19 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>6.208592851368702e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>6.208592851368702e-07</v>
+        <v>0.0004263127803664844</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0004263127803664844</v>
+        <v>0.5208272193824912</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5208272193824912</v>
+        <v>0.01167634483809112</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01167634483809112</v>
-      </c>
-      <c r="G36" t="n">
         <v>0.0052388532276893</v>
       </c>
     </row>
@@ -1358,22 +1236,19 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" t="n">
+        <v>0.2295351707116413</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.961058814552752</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2634865134865135</v>
+      </c>
+      <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.2295351707116413</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.961058814552752</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2634865134865135</v>
-      </c>
       <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
         <v>0.4173179761415056</v>
       </c>
     </row>
@@ -1383,22 +1258,19 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>0.1530418841588201</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1530418841588201</v>
+        <v>0.6532367441100604</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6532367441100604</v>
+        <v>0.3074341659273954</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3074341659273954</v>
+        <v>0.3288810831191051</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3288810831191051</v>
-      </c>
-      <c r="G38" t="n">
         <v>0.1530418841588201</v>
       </c>
     </row>
@@ -1408,3369 +1280,2751 @@
           <t>Sorafenib_1F09</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="n">
+        <v>1.415537422123021e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>2.656396824319165e-06</v>
+        <v>0.001447834970502444</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0001463493992414256</v>
+        <v>4.728500585018512e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>3.161457000423004e-06</v>
+        <v>8.166169175927198e-08</v>
       </c>
       <c r="F39" t="n">
-        <v>4.406550794571112e-09</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4.887585532746823e-05</v>
+        <v>0.0001882175795219273</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n">
-        <v>0.5</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5993819586698879</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0168134005645241</v>
+        <v>0.0002659035214735807</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1680191782646671</v>
+        <v>0.5970285369666561</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5498554118785749</v>
+        <v>0.1679212583303107</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0007578242895012787</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.001534448024011591</v>
+        <v>0.2325406544071081</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.473828321041964</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5993819586698879</v>
+        <v>0.342011565840154</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0002659035214735807</v>
+        <v>0.001785317152239513</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5970285369666561</v>
+        <v>0.7965201484910589</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1679212583303107</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.2325406544071081</v>
+        <v>0.00272995338130412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.07206320905091358</v>
       </c>
       <c r="C42" t="n">
-        <v>0.473828321041964</v>
+        <v>0.06253125328749033</v>
       </c>
       <c r="D42" t="n">
-        <v>0.342011565840154</v>
+        <v>0.05650728603074183</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001785317152239513</v>
+        <v>0.8550361968321086</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7965201484910589</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.00272995338130412</v>
+        <v>0.002914255399433271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1619724104801261</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07206320905091358</v>
+        <v>0.0001828237122354769</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06253125328749033</v>
+        <v>0.7545787545787546</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05650728603074183</v>
+        <v>0.9044230538733476</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8550361968321086</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.002914255399433271</v>
+        <v>0.5402913746074198</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.001232171935925456</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1619724104801261</v>
+        <v>3.508670396567327e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0001828237122354769</v>
+        <v>0.02116699156773605</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7545787545787546</v>
+        <v>0.02908673434131497</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9044230538733476</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.07646728770959502</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2.834160825494293e-05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.002840110589867792</v>
+      </c>
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.0007916231200871516</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.798405142395575e-07</v>
-      </c>
       <c r="E45" t="n">
-        <v>0.005579946348994645</v>
+        <v>0.3158714347521603</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0687416532425125</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.02898772953823356</v>
+        <v>0.4972501245865969</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n">
-        <v>0.5</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.121141516004118</v>
+        <v>4.570592805886923e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>3.706810063420917e-05</v>
+        <v>0.5621878121878122</v>
       </c>
       <c r="E46" t="n">
-        <v>0.557350369626068</v>
+        <v>0.7339899249173781</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1145015666573956</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.5125117166055685</v>
+        <v>0.331387096247615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02052196169843229</v>
       </c>
       <c r="C47" t="n">
-        <v>2.834160825494293e-05</v>
+        <v>0.02066822066822067</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002840110589867792</v>
+        <v>0.8518148518148518</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0.1199650031218789</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3158714347521603</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.4972501245865969</v>
+        <v>0.8883587001234061</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6533789106936937</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.001563142739613328</v>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.570592805886923e-05</v>
-      </c>
       <c r="E48" t="n">
-        <v>0.5621878121878122</v>
+        <v>0.8613108735500936</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7339899249173781</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.331387096247615</v>
+        <v>0.2893148323819877</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7.925071170933247e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02052196169843229</v>
+        <v>0.0002331897187039015</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02066822066822067</v>
+        <v>0.5804112384153828</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8518148518148518</v>
+        <v>0.0110255977772331</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1199650031218789</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.8883587001234061</v>
+        <v>0.6573133414517081</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6533789106936937</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.02066822066822067</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4135864135864136</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8414805811217939</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4234471410941999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2056671796173555</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02064993829699712</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.344988344988345</v>
+      </c>
+      <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.9061856157549283</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.00109044520887287</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.8429288944105098</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.8205558377885043</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.04215659915471165</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.1454815715685281</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.009232689507289048</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.741723331035486</v>
-      </c>
       <c r="F51" t="n">
-        <v>0.2430291138576491</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.2378329272398489</v>
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="n">
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.2300904491284602</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5053613053613053</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" t="n">
-        <v>2.467621394127068e-05</v>
-      </c>
-      <c r="D52" t="n">
-        <v>6.590700858776189e-06</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.3702946155603408</v>
-      </c>
       <c r="F52" t="n">
-        <v>0.03024106890395362</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.5349976496436895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n">
-        <v>0.5</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7913367801006604</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2366770671303493</v>
+        <v>0.3447042220069576</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02458412133781418</v>
+        <v>0.0009872480460715754</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4372387172832112</v>
+        <v>0.7700918467147326</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002273537547794429</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
+        <v>0.7913367801006604</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.965400612459436</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02066822066822067</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4135864135864136</v>
+        <v>0.515317409913256</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8414805811217939</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.4234471410941999</v>
+        <v>0.5147858677270442</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3008271959412008</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2056671796173555</v>
+        <v>0.1474701177648358</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02064993829699712</v>
+        <v>0.04005621699687032</v>
       </c>
       <c r="E55" t="n">
-        <v>0.344988344988345</v>
+        <v>0.5347446449619333</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.5823193735766927</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1041098896602268</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2300904491284602</v>
+        <v>0.3912672792826394</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5053613053613053</v>
+        <v>0.000666000666000666</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2948717948717949</v>
+        <v>0.8633332895365006</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
+        <v>0.1041098896602268</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="n">
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1728141139905846</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8867749897161661</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2843822843822844</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.8794275253645891</v>
+      </c>
+      <c r="F57" t="n">
         <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.7913367801006604</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.3447042220069576</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.0009872480460715754</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.7700918467147326</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.7913367801006604</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.2364447155723038</v>
       </c>
       <c r="C58" t="n">
-        <v>0.965400612459436</v>
+        <v>0.4922577422577423</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236985236985237</v>
+        <v>0.3676767676767677</v>
       </c>
       <c r="E58" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.3304667624494304</v>
       </c>
       <c r="F58" t="n">
-        <v>0.515317409913256</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.40824534942182</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7618264088852323</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3008271959412008</v>
+        <v>0.2634865134865135</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1474701177648358</v>
+        <v>0.07272727272727274</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04005621699687032</v>
+        <v>0.8359944985248412</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5347446449619333</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.5823193735766927</v>
+        <v>0.236985236985237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6533789106936937</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1041098896602268</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3912672792826394</v>
+        <v>0.07210567210567211</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000666000666000666</v>
+        <v>0.1824665343550301</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8633332895365006</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.1041098896602268</v>
+        <v>0.967435545139537</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5402913746074198</v>
       </c>
       <c r="C61" t="n">
+        <v>0.40824534942182</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9497169497169498</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7668240806643668</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.1728141139905846</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.8867749897161661</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.2843822843822844</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.8794275253645891</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="n">
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2364447155723038</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4922577422577423</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3676767676767677</v>
+        <v>0.6997327763594273</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3304667624494304</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.40824534942182</v>
+        <v>0.6964669317610493</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.001616026079602008</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7618264088852323</v>
+        <v>1.60216705528935e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2634865134865135</v>
+        <v>0.5521336777877963</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07272727272727274</v>
+        <v>0.2344369889196074</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8359944985248412</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.236985236985237</v>
+        <v>0.7386861701903167</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n">
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.178363899843974</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.00599818589412051</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3601927994949283</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2412585031531986</v>
+      </c>
+      <c r="F64" t="n">
         <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.6533789106936937</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.236985236985237</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.07210567210567211</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.1824665343550301</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.967435545139537</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.06705237086818633</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.004332900030744769</v>
       </c>
       <c r="D65" t="n">
-        <v>0.40824534942182</v>
+        <v>0.2891116966965415</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9497169497169498</v>
+        <v>0.1476013976260824</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7668240806643668</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.1728141139905846</v>
+        <v>0.2507800804447518</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1864404631274125</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.0001030341649342682</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>5.271468323674538e-05</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1862827756096458</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6997327763594273</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.5596689271994115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4.504087905000833e-06</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001616026079602008</v>
+        <v>0.0002622403088409687</v>
       </c>
       <c r="D67" t="n">
-        <v>1.60216705528935e-06</v>
+        <v>0.1205826762519681</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5521336777877963</v>
+        <v>0.9717258916676981</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2344369889196074</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.7386861701903167</v>
+        <v>0.2930632585756785</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2.395424410632698e-07</v>
       </c>
       <c r="C68" t="n">
-        <v>0.178363899843974</v>
+        <v>0.003580101168742084</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00599818589412051</v>
+        <v>0.1877948387384052</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3601927994949283</v>
+        <v>1.47837850016573e-07</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2412585031531986</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
+        <v>5.644034645788488e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1330728095433978</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06705237086818633</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004332900030744769</v>
+        <v>0.1898101898101898</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2891116966965415</v>
+        <v>0.09597948641814748</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1476013976260824</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.2507800804447518</v>
+        <v>0.1805694305694306</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1011015128662187</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1864404631274125</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0001030341649342682</v>
+        <v>0.05923488276429453</v>
       </c>
       <c r="E70" t="n">
-        <v>5.271468323674538e-05</v>
+        <v>0.6351672635718316</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1862827756096458</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.5596689271994115</v>
+        <v>0.5726038667215138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3154166095342566</v>
       </c>
       <c r="C71" t="n">
-        <v>4.504087905000833e-06</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0002622403088409687</v>
+        <v>0.6889110889110889</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1205826762519681</v>
+        <v>0.0580855029876557</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9717258916676981</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.2930632585756785</v>
+        <v>0.4597559303441656</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.967435545139537</v>
       </c>
       <c r="C72" t="n">
-        <v>2.572313578888661e-08</v>
+        <v>0.5956108994757296</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001643142434298129</v>
+        <v>0.1853263041985794</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1475013999026327</v>
+        <v>0.6673192468459636</v>
       </c>
       <c r="F72" t="n">
-        <v>9.404379874744599e-09</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5.607141817598636e-06</v>
+        <v>0.7133031738784577</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n">
-        <v>0.5</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.967435545139537</v>
       </c>
       <c r="C73" t="n">
-        <v>1.584030875461375e-05</v>
+        <v>0.07723574482601518</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08604009392462883</v>
+        <v>0.5360139860139861</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001678855611009324</v>
+        <v>0.8814974521910136</v>
       </c>
       <c r="F73" t="n">
-        <v>1.573120755272448e-05</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.7835616052099432</v>
+        <v>0.0791793495755705</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3074341659273954</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1330728095433978</v>
+        <v>0.1574899295225743</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.4634032634032634</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1898101898101898</v>
+        <v>0.8801684549067255</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09597948641814748</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.1805694305694306</v>
+        <v>0.3477455989106976</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7618264088852323</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1011015128662187</v>
+        <v>0.4265379994109663</v>
       </c>
       <c r="D75" t="n">
-        <v>0.236985236985237</v>
+        <v>0.6125874125874127</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05923488276429453</v>
+        <v>0.6982941528723372</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6351672635718316</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.5726038667215138</v>
+        <v>0.6533789106936937</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n">
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4876683534589304</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.001079790550202097</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8047785547785549</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6329163612952179</v>
+      </c>
+      <c r="F76" t="n">
         <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.3154166095342566</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1011015128662187</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.6889110889110889</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0580855029876557</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.4597559303441656</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.203071438365556</v>
       </c>
       <c r="C77" t="n">
-        <v>0.967435545139537</v>
+        <v>0.018326256539845</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5956108994757296</v>
+        <v>0.7103729603729605</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1853263041985794</v>
+        <v>0.4151293810725478</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6673192468459636</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.7133031738784577</v>
+        <v>0.4597559303441656</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1478898997113604</v>
       </c>
       <c r="C78" t="n">
-        <v>0.967435545139537</v>
+        <v>2.301129306149136e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07723574482601518</v>
+        <v>0.005711142795519263</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5360139860139861</v>
+        <v>0.5312385542468404</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8814974521910136</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.0791793495755705</v>
+        <v>0.5686182086635944</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="n">
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4597559303441656</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6642318548206392</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.7788655788655789</v>
+      </c>
+      <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="C79" t="n">
-        <v>0.3074341659273954</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.1574899295225743</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.4634032634032634</v>
-      </c>
       <c r="F79" t="n">
-        <v>0.8801684549067255</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.3477455989106976</v>
+        <v>0.05532702591526122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="n">
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7750513736700824</v>
+      </c>
+      <c r="C80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" t="n">
-        <v>0.7618264088852323</v>
-      </c>
       <c r="D80" t="n">
-        <v>0.4265379994109663</v>
+        <v>0.5358197358197359</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6125874125874127</v>
+        <v>0.5319352212322601</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6982941528723372</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.055013832353979</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8285570638511814</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4876683534589304</v>
+        <v>0.2476328047600628</v>
       </c>
       <c r="D81" t="n">
-        <v>0.001079790550202097</v>
+        <v>0.1205905205905206</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8047785547785549</v>
+        <v>0.4151293810725478</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6329163612952179</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
+        <v>0.7396133278486219</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4747017688194159</v>
       </c>
       <c r="C82" t="n">
-        <v>0.203071438365556</v>
+        <v>0.2439297221420511</v>
       </c>
       <c r="D82" t="n">
-        <v>0.018326256539845</v>
+        <v>0.2086247086247086</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7103729603729605</v>
+        <v>0.8566018180876993</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4151293810725478</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.4597559303441656</v>
+        <v>0.6008844097079391</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.2054682831983818</v>
+      </c>
+      <c r="C83" t="n">
         <v>1</v>
       </c>
-      <c r="C83" t="n">
-        <v>0.1480007259847727</v>
-      </c>
       <c r="D83" t="n">
-        <v>1.158658250724429e-05</v>
+        <v>0.4639403537057452</v>
       </c>
       <c r="E83" t="n">
-        <v>0.002091492660477514</v>
+        <v>0.2506917798689591</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2600045389797606</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.3523259205952687</v>
+        <v>0.1682272708635272</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n">
-        <v>0.5</v>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.03725304028104262</v>
       </c>
       <c r="C84" t="n">
-        <v>0.121141516004118</v>
+        <v>0.07723574482601518</v>
       </c>
       <c r="D84" t="n">
-        <v>1.769753727071488e-05</v>
+        <v>0.1424248803045417</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0002431353712812756</v>
+        <v>0.1348909545095918</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1080507143861863</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.2571900461544617</v>
+        <v>0.2362390735919851</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3686003611597196</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4597559303441656</v>
+        <v>0.02415479315982097</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6642318548206392</v>
+        <v>0.3854322436611779</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7788655788655789</v>
+        <v>0.5282230364968106</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.05532702591526122</v>
+        <v>0.1211154630850481</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.07904776203659057</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7750513736700824</v>
+        <v>0.05193759572394502</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0.2300904491284602</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5358197358197359</v>
+        <v>0.8146190099905082</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5319352212322601</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.055013832353979</v>
+        <v>0.5954494752210773</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.2300904491284602</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8285570638511814</v>
+        <v>0.3353308495068514</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2476328047600628</v>
+        <v>0.755691342054514</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1205905205905206</v>
+        <v>0.4232423767389196</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4151293810725478</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.7396133278486219</v>
+        <v>0.5633732305249262</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.02108547103525801</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4747017688194159</v>
+        <v>0.1910287005329572</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2439297221420511</v>
+        <v>0.6230455308379078</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2086247086247086</v>
+        <v>0.1724151026113812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8566018180876993</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.6008844097079391</v>
+        <v>0.1857112804447995</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.01991016304381737</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2054682831983818</v>
+        <v>0.3093797372796825</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.8706620454734711</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4639403537057452</v>
+        <v>0.4885138377182608</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2506917798689591</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.1682272708635272</v>
+        <v>0.00510561208027231</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9417327745768896</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03725304028104262</v>
+        <v>0.9394416580785075</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07723574482601518</v>
+        <v>0.1078773060677835</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1424248803045417</v>
+        <v>0.2397677701871594</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1348909545095918</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.2362390735919851</v>
+        <v>0.02728728144931691</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6248840480349922</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3686003611597196</v>
+        <v>0.8097797706434724</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02415479315982097</v>
+        <v>0.6248840480349922</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3854322436611779</v>
+        <v>0.4306976120658084</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5282230364968106</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.1211154630850481</v>
+        <v>0.4498681706765151</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.2222286986408264</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07904776203659057</v>
+        <v>0.5964154160514543</v>
       </c>
       <c r="D92" t="n">
-        <v>0.05193759572394502</v>
+        <v>0.2222286986408264</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2300904491284602</v>
+        <v>0.3835725856265404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8146190099905082</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.5954494752210773</v>
+        <v>0.4065253213452477</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4267767365329836</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.003568628436933387</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.8148087206910737</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1201964415000217</v>
+      </c>
+      <c r="F93" t="n">
         <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.2300904491284602</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.3353308495068514</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.755691342054514</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.4232423767389196</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.5633732305249262</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>1</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.859819205054158</v>
       </c>
       <c r="C94" t="n">
-        <v>0.02108547103525801</v>
+        <v>0.001086246625822034</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1910287005329572</v>
+        <v>0.1948717948717948</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6230455308379078</v>
+        <v>0.214300095273175</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1724151026113812</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.1857112804447995</v>
+        <v>0.859819205054158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01991016304381737</v>
+        <v>0.113944878650761</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3093797372796825</v>
+        <v>0.3822843822843822</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8706620454734711</v>
+        <v>0.9095950940534051</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4885138377182608</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.00510561208027231</v>
+        <v>0.4807075277663513</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.4799286921459572</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9417327745768896</v>
+        <v>0.001086246625822034</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9394416580785075</v>
+        <v>0.6058412176059235</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1078773060677835</v>
+        <v>0.5344093590728781</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2397677701871594</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.02728728144931691</v>
+        <v>0.5364994693194564</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4807075277663513</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6248840480349922</v>
+        <v>0.4234471410941999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8097797706434724</v>
+        <v>0.5053613053613053</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6248840480349922</v>
+        <v>0.2666161882749017</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4306976120658084</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.4498681706765151</v>
+        <v>0.1995886466474702</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="n">
-        <v>1</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.437942822899974</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2222286986408264</v>
+        <v>0.00166933664274255</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5964154160514543</v>
+        <v>0.3599341834635952</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2222286986408264</v>
+        <v>0.3171525807066966</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3835725856265404</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.4065253213452477</v>
+        <v>0.2893148323819877</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.2163730080576375</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4267767365329836</v>
+        <v>0.04226010608395664</v>
       </c>
       <c r="D99" t="n">
-        <v>0.003568628436933387</v>
+        <v>0.3212669683257919</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.683846186890438</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1201964415000217</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
+        <v>0.2893148323819877</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>1</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.859819205054158</v>
       </c>
       <c r="C100" t="n">
-        <v>0.859819205054158</v>
+        <v>0.04226010608395664</v>
       </c>
       <c r="D100" t="n">
-        <v>0.001086246625822034</v>
+        <v>0.04640065816536405</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1948717948717948</v>
+        <v>0.05091323977665286</v>
       </c>
       <c r="F100" t="n">
-        <v>0.214300095273175</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.859819205054158</v>
+        <v>0.7910815129207817</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.2358700123406006</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0.6058412176059235</v>
       </c>
       <c r="D101" t="n">
-        <v>0.113944878650761</v>
+        <v>0.8784770784770783</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3822843822843822</v>
+        <v>0.8324207638940982</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9095950940534051</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.4807075277663513</v>
+        <v>0.3703825586178527</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="n">
-        <v>1</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5414232825997531</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4799286921459572</v>
+        <v>0.1995886466474702</v>
       </c>
       <c r="D102" t="n">
-        <v>0.001086246625822034</v>
+        <v>0.5737373737373737</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6058412176059235</v>
+        <v>0.6737416960378539</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5344093590728781</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.5364994693194564</v>
+        <v>0.7429864253393665</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="n">
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1780423861018503</v>
+      </c>
+      <c r="C103" t="n">
         <v>1</v>
       </c>
-      <c r="C103" t="n">
-        <v>0.4807075277663513</v>
-      </c>
       <c r="D103" t="n">
-        <v>0.4234471410941999</v>
+        <v>0.3817750795788453</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5053613053613053</v>
+        <v>0.8079161864084929</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2666161882749017</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.1995886466474702</v>
+        <v>0.005836721730910094</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9296365245070707</v>
       </c>
       <c r="C104" t="n">
-        <v>0.437942822899974</v>
+        <v>0.4234471410941999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00166933664274255</v>
+        <v>0.3703825586178527</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3599341834635952</v>
+        <v>0.2317829179659263</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3171525807066966</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.2893148323819877</v>
+        <v>0.3772246166674534</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.8148087206910737</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2163730080576375</v>
+        <v>0.959129759129759</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04226010608395664</v>
+        <v>0.5737373737373737</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3212669683257919</v>
+        <v>0.95802887169046</v>
       </c>
       <c r="F105" t="n">
-        <v>0.683846186890438</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.2893148323819877</v>
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.2893148323819877</v>
       </c>
       <c r="C106" t="n">
-        <v>0.859819205054158</v>
+        <v>0.007897984368572603</v>
       </c>
       <c r="D106" t="n">
-        <v>0.04226010608395664</v>
+        <v>0.4234471410941999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04640065816536405</v>
+        <v>0.5117481418843147</v>
       </c>
       <c r="F106" t="n">
-        <v>0.05091323977665286</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.7910815129207817</v>
+        <v>0.8883587001234061</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5414232825997531</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2358700123406006</v>
+        <v>0.5737373737373737</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6058412176059235</v>
+        <v>0.5053613053613053</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8784770784770783</v>
+        <v>0.647089700178523</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8324207638940982</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.3703825586178527</v>
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1530418841588201</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5414232825997531</v>
+        <v>0.6964669317610493</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1995886466474702</v>
+        <v>0.8967503085150144</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5737373737373737</v>
+        <v>0.3477399194205458</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6737416960378539</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.7429864253393665</v>
+        <v>0.1779095949869824</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.1577043874630777</v>
+      </c>
+      <c r="C109" t="n">
         <v>1</v>
       </c>
-      <c r="C109" t="n">
-        <v>0.1780423861018503</v>
-      </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0.4418026418026417</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3817750795788453</v>
+        <v>0.1810585477112948</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8079161864084929</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.005836721730910094</v>
+        <v>0.1853263041985794</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6909509366043816</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9296365245070707</v>
+        <v>0.6741981971505068</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4234471410941999</v>
+        <v>0.1303807303807304</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3703825586178527</v>
+        <v>0.07713073420297641</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2317829179659263</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.3772246166674534</v>
+        <v>0.6058412176059235</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5262434902656008</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.0955644516161204</v>
       </c>
       <c r="D111" t="n">
-        <v>0.959129759129759</v>
+        <v>0.6748915230109515</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5737373737373737</v>
+        <v>0.5371451443754227</v>
       </c>
       <c r="F111" t="n">
-        <v>0.95802887169046</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.09940357565556361</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.113944878650761</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2893148323819877</v>
+        <v>0.8168005804132161</v>
       </c>
       <c r="D112" t="n">
-        <v>0.007897984368572603</v>
+        <v>0.6943278943278944</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4234471410941999</v>
+        <v>0.8764225235799469</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5117481418843147</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.8883587001234061</v>
+        <v>0.5414232825997531</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3477455989106976</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.004848762721678938</v>
+      </c>
+      <c r="D113" t="n">
         <v>1</v>
       </c>
-      <c r="C113" t="n">
-        <v>0.5414232825997531</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.5737373737373737</v>
-      </c>
       <c r="E113" t="n">
-        <v>0.5053613053613053</v>
+        <v>0.5554024939348726</v>
       </c>
       <c r="F113" t="n">
-        <v>0.647089700178523</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.8148087206910737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7750513736700824</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1530418841588201</v>
+        <v>0.01601099081051716</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.7618264088852323</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8967503085150144</v>
+        <v>0.6999981864252365</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3477399194205458</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.1779095949869824</v>
+        <v>0.121989121989122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.40824534942182</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1577043874630777</v>
+        <v>0.07540971966202824</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0.6964669317610493</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4418026418026417</v>
+        <v>0.1127423660824076</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1810585477112948</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.1853263041985794</v>
+        <v>0.40824534942182</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.2364447155723038</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6909509366043816</v>
+        <v>0.00166933664274255</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6741981971505068</v>
+        <v>0.02664655605832076</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1303807303807304</v>
+        <v>0.6047728544859003</v>
       </c>
       <c r="F116" t="n">
-        <v>0.07713073420297641</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.6058412176059235</v>
+        <v>0.4597559303441656</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.054527172174231</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5262434902656008</v>
+        <v>0.04088849469666719</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0955644516161204</v>
+        <v>0.5726038667215138</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6748915230109515</v>
+        <v>0.01611247404641657</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5371451443754227</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.09940357565556361</v>
+        <v>0.5147858677270442</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.8382564863858263</v>
       </c>
       <c r="C118" t="n">
-        <v>0.113944878650761</v>
+        <v>0.1530418841588201</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8168005804132161</v>
+        <v>0.7133031738784577</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6943278943278944</v>
+        <v>0.8541001374821646</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8764225235799469</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.5414232825997531</v>
+        <v>0.1779095949869824</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.1530418841588201</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3477455989106976</v>
+        <v>0.06595477070719091</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004848762721678938</v>
+        <v>0.7133031738784577</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0.5587003212109766</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5554024939348726</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1</v>
+        <v>0.3074341659273954</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5956108994757296</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7750513736700824</v>
+        <v>0.2527908475104067</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01601099081051716</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7618264088852323</v>
+        <v>0.8938268460426489</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6999981864252365</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.121989121989122</v>
+        <v>0.965400612459436</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.8285570638511814</v>
       </c>
       <c r="C121" t="n">
-        <v>0.40824534942182</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="D121" t="n">
-        <v>0.07540971966202824</v>
+        <v>0.7618264088852323</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.9571673184928212</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1127423660824076</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.40824534942182</v>
+        <v>0.8967503085150144</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1728141139905846</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2364447155723038</v>
+        <v>0.203071438365556</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00166933664274255</v>
+        <v>0.6964669317610493</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02664655605832076</v>
+        <v>0.7337299956962472</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6047728544859003</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.4597559303441656</v>
+        <v>0.6334384569678687</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9025232501776794</v>
       </c>
       <c r="C123" t="n">
-        <v>0.054527172174231</v>
+        <v>0.164938177051956</v>
       </c>
       <c r="D123" t="n">
-        <v>0.04088849469666719</v>
+        <v>0.437942822899974</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5726038667215138</v>
+        <v>0.5587003212109766</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01611247404641657</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.2056671796173555</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.03733641592066286</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.1309111278962908</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5402913746074198</v>
+      </c>
+      <c r="E124" t="n">
         <v>1</v>
       </c>
-      <c r="C124" t="n">
+      <c r="F124" t="n">
         <v>0.8382564863858263</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.1530418841588201</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.7133031738784577</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.8541001374821646</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.1779095949869824</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2.271830760697321e-06</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1530418841588201</v>
+        <v>4.219587632352974e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>0.06595477070719091</v>
+        <v>0.0002951686826234254</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7133031738784577</v>
+        <v>1.52205739419292e-07</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5587003212109766</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.3074341659273954</v>
+        <v>0.00275870990580792</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6533789106936937</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.07232278628720068</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.7750513736700824</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4547346491530376</v>
+      </c>
+      <c r="F126" t="n">
         <v>1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.5956108994757296</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.2527908475104067</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.1011015128662187</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.8938268460426489</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.965400612459436</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B127" s="1" t="n">
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8285570638511814</v>
+        <v>0.5147858677270442</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1011015128662187</v>
+        <v>0.8967503085150144</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7618264088852323</v>
+        <v>0.8375569438370697</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9571673184928212</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.8967503085150144</v>
+        <v>0.40824534942182</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1.803826381526624e-07</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1728141139905846</v>
+        <v>2.11131488437444e-07</v>
       </c>
       <c r="D128" t="n">
-        <v>0.203071438365556</v>
+        <v>0.0002504131805815364</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.059665914938716</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7337299956962472</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.6334384569678687</v>
+        <v>0.0003821914080474917</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.06619257972219345</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9025232501776794</v>
+        <v>0.0791793495755705</v>
       </c>
       <c r="D129" t="n">
-        <v>0.164938177051956</v>
+        <v>0.7133031738784577</v>
       </c>
       <c r="E129" t="n">
-        <v>0.437942822899974</v>
+        <v>0.5587003212109766</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5587003212109766</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.2056671796173555</v>
+        <v>0.4876683534589304</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.06089183610091669</v>
       </c>
       <c r="C130" t="n">
-        <v>0.03733641592066286</v>
+        <v>0.217097847380246</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1309111278962908</v>
+        <v>0.7142823537989498</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.2539271174425302</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.8382564863858263</v>
+        <v>0.04269714068819343</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.03427944604415192</v>
       </c>
       <c r="C131" t="n">
-        <v>1.072300812087577e-06</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="D131" t="n">
-        <v>5.938695249755105e-07</v>
+        <v>0.4747017688194159</v>
       </c>
       <c r="E131" t="n">
-        <v>5.609326304706845e-05</v>
+        <v>0.8809959867427637</v>
       </c>
       <c r="F131" t="n">
-        <v>1.35812441411922e-08</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0007658865249428802</v>
+        <v>0.203071438365556</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n">
-        <v>0.5</v>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.006216006216006216</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1208690782245162</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6605449361366671</v>
+        <v>0.6690662278897572</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004156926194484266</v>
+        <v>0.9571673184928212</v>
       </c>
       <c r="F132" t="n">
-        <v>8.58091338187761e-06</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2.331121875713906e-06</v>
+        <v>0.8867749897161661</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.01601099081051716</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.1113468865331404</v>
       </c>
       <c r="D133" t="n">
-        <v>0.07232278628720068</v>
+        <v>0.113944878650761</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7750513736700824</v>
+        <v>0.6792246010177549</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4547346491530376</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1</v>
+        <v>0.6588432549492806</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.03165088016995849</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0.002249964199063247</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.7777577411082133</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8967503085150144</v>
+        <v>0.5214594328866909</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8375569438370697</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.40824534942182</v>
+        <v>0.09770487650101436</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.03427944604415192</v>
       </c>
       <c r="C135" t="n">
-        <v>1.803826381526624e-07</v>
+        <v>0.6334384569678687</v>
       </c>
       <c r="D135" t="n">
-        <v>2.11131488437444e-07</v>
+        <v>0.001563142739613328</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0002504131805815364</v>
+        <v>0.6582988776466976</v>
       </c>
       <c r="F135" t="n">
-        <v>0.059665914938716</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0003821914080474917</v>
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.967435545139537</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.3074341659273954</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.01044427110137023</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.1738507160282653</v>
+      </c>
+      <c r="F136" t="n">
         <v>1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.06619257972219345</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.0791793495755705</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.7133031738784577</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.5587003212109766</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.4876683534589304</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.4597559303441656</v>
       </c>
       <c r="C137" t="n">
-        <v>0.06089183610091669</v>
+        <v>0.6964669317610493</v>
       </c>
       <c r="D137" t="n">
-        <v>0.217097847380246</v>
+        <v>0.09271904566022213</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7142823537989498</v>
+        <v>0.8475535951179215</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2539271174425302</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.04269714068819343</v>
+        <v>0.3703825586178527</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.3477455989106976</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9025232501776794</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5962416305866567</v>
+      </c>
+      <c r="E138" t="n">
         <v>1</v>
       </c>
-      <c r="C138" t="n">
-        <v>0.03427944604415192</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.236985236985237</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.4747017688194159</v>
-      </c>
       <c r="F138" t="n">
-        <v>0.8809959867427637</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.203071438365556</v>
+        <v>0.04226010608395664</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.09416637543787974</v>
       </c>
       <c r="C139" t="n">
-        <v>0.006216006216006216</v>
+        <v>0.4876683534589304</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1011015128662187</v>
+        <v>0.001086246625822034</v>
       </c>
       <c r="E139" t="n">
-        <v>0.6690662278897572</v>
+        <v>0.3802760833283279</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9571673184928212</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.8867749897161661</v>
+        <v>0.5962416305866567</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.09416637543787974</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5402913746074198</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.007897984368572603</v>
+      </c>
+      <c r="E140" t="n">
         <v>1</v>
       </c>
-      <c r="C140" t="n">
-        <v>0.01601099081051716</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.1113468865331404</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.113944878650761</v>
-      </c>
       <c r="F140" t="n">
-        <v>0.6792246010177549</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.6588432549492806</v>
+        <v>0.2765939942410531</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.1728141139905846</v>
       </c>
       <c r="C141" t="n">
-        <v>0.03165088016995849</v>
+        <v>0.5147858677270442</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002249964199063247</v>
+        <v>0.02064993829699712</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7777577411082133</v>
+        <v>0.8397135013018749</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5214594328866909</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.09770487650101436</v>
+        <v>0.005244755244755245</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.02664655605832076</v>
       </c>
       <c r="C142" t="n">
-        <v>0.03427944604415192</v>
+        <v>0.8867749897161661</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6334384569678687</v>
+        <v>0.07115384615384615</v>
       </c>
       <c r="E142" t="n">
-        <v>0.001563142739613328</v>
+        <v>0.6585007180113081</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6582988776466976</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.7429864253393665</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.3074894566186813</v>
       </c>
       <c r="C143" t="n">
+        <v>0.1212245030129166</v>
+      </c>
+      <c r="D143" t="n">
         <v>0.967435545139537</v>
       </c>
-      <c r="D143" t="n">
-        <v>0.3074341659273954</v>
-      </c>
       <c r="E143" t="n">
-        <v>0.01044427110137023</v>
+        <v>0.7023728565713185</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1738507160282653</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
+        <v>0.9097218891455553</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.5205228832757727</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4597559303441656</v>
+        <v>0.3846730627355087</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.03763531378731424</v>
       </c>
       <c r="E144" t="n">
-        <v>0.09271904566022213</v>
+        <v>0.3267292129367155</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8475535951179215</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.3703825586178527</v>
+        <v>0.7337299956962472</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.0791793495755705</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3477455989106976</v>
+        <v>0.513444337525733</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9025232501776794</v>
+        <v>0.5726038667215138</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5962416305866567</v>
+        <v>0.4347459779154463</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.04226010608395664</v>
+        <v>0.7133031738784577</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.8330965530236862</v>
       </c>
       <c r="C146" t="n">
-        <v>0.09416637543787974</v>
+        <v>0.2731396700856868</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4876683534589304</v>
+        <v>0.1123965161978618</v>
       </c>
       <c r="E146" t="n">
-        <v>0.001086246625822034</v>
+        <v>0.4613213943265947</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3802760833283279</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.5962416305866567</v>
+        <v>0.5272591878694695</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.3447042220069576</v>
       </c>
       <c r="C147" t="n">
-        <v>0.09416637543787974</v>
+        <v>0.7913367801006604</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.0211339281291611</v>
       </c>
       <c r="E147" t="n">
-        <v>0.007897984368572603</v>
+        <v>0.7382597635654166</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.2765939942410531</v>
+        <v>0.9097218891455553</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6775849579524755</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1728141139905846</v>
+        <v>0.1858767323658758</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.001706249368919596</v>
       </c>
       <c r="E148" t="n">
-        <v>0.02064993829699712</v>
+        <v>0.3602889183098518</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8397135013018749</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.005244755244755245</v>
+        <v>0.3447042220069576</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.3447042220069576</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9096542252801711</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.9097218891455553</v>
+      </c>
+      <c r="E149" t="n">
         <v>1</v>
       </c>
-      <c r="C149" t="n">
-        <v>0.02664655605832076</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.8867749897161661</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.07115384615384615</v>
-      </c>
       <c r="F149" t="n">
-        <v>0.6585007180113081</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.7429864253393665</v>
+        <v>0.3846730627355087</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.8382564863858263</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3074894566186813</v>
+        <v>0.9025232501776794</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1212245030129166</v>
+        <v>0.2364447155723038</v>
       </c>
       <c r="E150" t="n">
-        <v>0.967435545139537</v>
+        <v>0.6999981864252365</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7023728565713185</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.9097218891455553</v>
+        <v>0.2364447155723038</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.5321285767738109</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5205228832757727</v>
+        <v>0.1030019344040598</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3846730627355087</v>
+        <v>0.2930632585756785</v>
       </c>
       <c r="E151" t="n">
-        <v>0.03763531378731424</v>
+        <v>0.6859384737841339</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3267292129367155</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.7337299956962472</v>
+        <v>0.1030019344040598</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>1</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.5956108994757296</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0791793495755705</v>
+        <v>0.1912236181376817</v>
       </c>
       <c r="D152" t="n">
-        <v>0.513444337525733</v>
+        <v>0.3912672792826394</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5726038667215138</v>
+        <v>0.3628843214106182</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4347459779154463</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.7133031738784577</v>
+        <v>0.2703441406547801</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>5.388978027422974e-05</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8330965530236862</v>
+        <v>0.0001010704481420718</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2731396700856868</v>
+        <v>0.0002061091154298469</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1123965161978618</v>
+        <v>1.69556998950334e-07</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4613213943265947</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.5272591878694695</v>
+        <v>0.0003106603426391901</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.0791793495755705</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3447042220069576</v>
+        <v>0.03733641592066286</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7913367801006604</v>
+        <v>0.6533789106936937</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0211339281291611</v>
+        <v>0.03497702659218817</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7382597635654166</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.9097218891455553</v>
+        <v>0.2703441406547801</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.2742812742812743</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6775849579524755</v>
+        <v>0.5726038667215138</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1858767323658758</v>
+        <v>0.965400612459436</v>
       </c>
       <c r="E155" t="n">
-        <v>0.001706249368919596</v>
+        <v>0.2409066203396328</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3602889183098518</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.3447042220069576</v>
+        <v>0.6964669317610493</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.437942822899974</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.5402913746074198</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.965400612459436</v>
+      </c>
+      <c r="E156" t="n">
         <v>1</v>
       </c>
-      <c r="C156" t="n">
-        <v>0.3447042220069576</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.9096542252801711</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.9097218891455553</v>
-      </c>
       <c r="F156" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.3846730627355087</v>
+        <v>0.967435545139537</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.3477455989106976</v>
       </c>
       <c r="C157" t="n">
-        <v>0.8382564863858263</v>
+        <v>0.6533789106936937</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9025232501776794</v>
+        <v>0.6533789106936937</v>
       </c>
       <c r="E157" t="n">
-        <v>0.2364447155723038</v>
+        <v>0.6999981864252365</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6999981864252365</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.2364447155723038</v>
+        <v>0.5956108994757296</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.2703441406547801</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5321285767738109</v>
+        <v>0.3074341659273954</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1030019344040598</v>
+        <v>0.8382564863858263</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2930632585756785</v>
+        <v>0.2298924994657628</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6859384737841339</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.1030019344040598</v>
+        <v>0.967435545139537</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.3154166095342566</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5956108994757296</v>
+        <v>0.8967503085150144</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1912236181376817</v>
+        <v>0.3599341834635952</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3912672792826394</v>
+        <v>0.3053173481213631</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3628843214106182</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.2703441406547801</v>
+        <v>0.236985236985237</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.4193113242511399</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.1200954351570896</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9878422663352727</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.2330593612912244</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1760497530486366</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.0001782949529238653</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.01648865672767014</v>
+      </c>
+      <c r="D161" t="n">
         <v>1</v>
       </c>
-      <c r="C160" t="n">
-        <v>1.378260468540951e-05</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.0003141393937584641</v>
-      </c>
-      <c r="E160" t="n">
-        <v>7.855058358430566e-06</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.4245485100380005</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.0002660065487586654</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>8.014107701359831e-06</v>
-      </c>
-      <c r="D161" t="n">
-        <v>3.015088363799094e-07</v>
-      </c>
       <c r="E161" t="n">
-        <v>0.06185085151826708</v>
+        <v>0.2473682729562733</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2022871852241082</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.7067853437655578</v>
+        <v>0.6707329801000557</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>5.333908536378238e-06</v>
       </c>
       <c r="C162" t="n">
-        <v>5.388978027422974e-05</v>
+        <v>1.029025598050446e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0001010704481420718</v>
+        <v>0.1052029192934054</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0002061091154298469</v>
+        <v>0.4962254307300714</v>
       </c>
       <c r="F162" t="n">
-        <v>1.69556998950334e-07</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.0003106603426391901</v>
+        <v>0.7292325560735091</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0386798582385012</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0791793495755705</v>
+        <v>0.0001551193982131297</v>
       </c>
       <c r="D163" t="n">
-        <v>0.03733641592066286</v>
+        <v>0.02258989717466463</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.8230752531278416</v>
       </c>
       <c r="F163" t="n">
-        <v>0.03497702659218817</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.2703441406547801</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.2742812742812743</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.5726038667215138</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.965400612459436</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.2409066203396328</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.6964669317610493</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.437942822899974</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.5402913746074198</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.965400612459436</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.967435545139537</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.3477455989106976</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.6533789106936937</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.6533789106936937</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.6999981864252365</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.5956108994757296</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.2703441406547801</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.3074341659273954</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.8382564863858263</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.2298924994657628</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.967435545139537</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.3154166095342566</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.8967503085150144</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.3599341834635952</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.3053173481213631</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.236985236985237</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.4193113242511399</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.1200954351570896</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.9878422663352727</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.2330593612912244</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.1760497530486366</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.0001782949529238653</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.01648865672767014</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.2473682729562733</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.6707329801000557</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.07478550011933321</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.7042596666864843</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.2233731772688732</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.03907700543815312</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.04401066096374268</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.0386798582385012</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.0001551193982131297</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.02258989717466463</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.8230752531278416</v>
-      </c>
-      <c r="G172" t="n">
         <v>0.2623442080961232</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.01998753256378862</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.06751350829731115</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.1091895383686905</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.8048445128838806</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.1877198600787452</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.02964282422067496</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.1595262868790264</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.5726473937741752</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.769213825650739</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.1789005188850333</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A171:A174"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-07-28_Morphology_Assay_pvalues.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_pvalues.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +455,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Body length (µm)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Heart Rate (BPM)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ejection fraction (%)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Number ISV (Count)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -466,19 +487,22 @@
           <t>Papaverine_1C02</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.8077150383050828</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.1048840386868505</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.01707571580961277</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1429865865690697</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.6613321345604537</v>
       </c>
     </row>
@@ -488,19 +512,22 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.9241938822157678</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.01946155991098307</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.02490488293945146</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.01878117447965155</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.8539401959464824</v>
       </c>
     </row>
@@ -510,19 +537,22 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.6661908079671156</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01147599422221806</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.9026308388372587</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3592385254948575</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.391792923510785</v>
       </c>
     </row>
@@ -532,19 +562,22 @@
           <t>Lonafarnib_1C05</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.7233195931130021</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.006241442803608344</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.2198326558099772</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2100053490215614</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.8317829381037092</v>
       </c>
     </row>
@@ -554,19 +587,22 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.09755173387356976</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.001639768515056734</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.3019782067750082</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.2939114849879069</v>
       </c>
     </row>
@@ -576,19 +612,22 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.4034358268327601</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.009556731318344638</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.6048781137168378</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.7220424610451099</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.564257277941103</v>
       </c>
     </row>
@@ -598,19 +637,22 @@
           <t>Tioguanine_1C08</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.9137811707223961</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.3454254489689802</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.7333107926333727</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3522422812178828</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.4864136413391559</v>
       </c>
     </row>
@@ -620,19 +662,22 @@
           <t>Tomivosertib_1C09</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.8038471232053614</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.5740288172000767</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.4562028338837304</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.9092112002221193</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.1327616785752945</v>
       </c>
     </row>
@@ -642,19 +687,22 @@
           <t>LY 2228820_1C10</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.4871856215054471</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.7688519650150216</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1602096100706547</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1034109127077447</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.6537570577660501</v>
       </c>
     </row>
@@ -664,7 +712,7 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
@@ -677,6 +725,9 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,19 +737,22 @@
           <t>Tigecycline_1C11</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.1467766899799145</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.1198059079159992</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.09666497944152211</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.9092112002221193</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.1261543044448941</v>
       </c>
     </row>
@@ -708,19 +762,22 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.1489146731787657</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.186225349689204</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.5101749393801144</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4161452593397242</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.1576590123442658</v>
       </c>
     </row>
@@ -730,19 +787,22 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.03074084417829116</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.005545667315244056</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.12130652289018</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.1600378082514268</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.2800506150642205</v>
       </c>
     </row>
@@ -752,3279 +812,3990 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2.447639247860544e-10</v>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.096540216230658e-07</v>
+        <v>1.422923535459963e-11</v>
       </c>
       <c r="D15" t="n">
-        <v>3.199855149445548e-07</v>
+        <v>5.316144188344484e-09</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0002863983898780393</v>
+        <v>1.500569587695617e-08</v>
       </c>
       <c r="F15" t="n">
-        <v>5.026430214352325e-05</v>
+        <v>0.002004560961314217</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.171711682409215e-06</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4654704588944648</v>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.451116634089162e-06</v>
+        <v>7.63219207098244e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1877948387384052</v>
+        <v>2.621640046393628e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.547057364204218</v>
+        <v>0.02532866311262225</v>
       </c>
       <c r="F16" t="n">
-        <v>0.883942122067261</v>
+        <v>0.002871726067224442</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01395525688870547</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.003708539119867315</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1576590123442658</v>
+        <v>0.4654704588944648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02704291111752244</v>
+        <v>3.451116634089162e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.492339643620104</v>
+        <v>0.1877948387384052</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1489146731787657</v>
+        <v>0.547057364204218</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.883942122067261</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003708539119867315</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.1576590123442658</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.1763065132303451</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4056837949366163</v>
-      </c>
       <c r="E18" t="n">
-        <v>0.3297636857262736</v>
+        <v>0.02704291111752244</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6376433969579411</v>
+        <v>0.492339643620104</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1489146731787657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.2018411463273689</v>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3700326217814945</v>
+        <v>0.1576590123442658</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6380665502227928</v>
+        <v>0.1763065132303451</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06701744339774392</v>
+        <v>0.4056837949366163</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2673783085194197</v>
+        <v>0.3297636857262736</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6376433969579411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.05272962876517547</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01790380406832535</v>
+        <v>0.2018411463273689</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1826826235708774</v>
+        <v>0.3700326217814945</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6313448264993933</v>
+        <v>0.6380665502227928</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1693788805733901</v>
+        <v>0.06701744339774392</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2673783085194197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.0103433063001453</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1179356357964507</v>
+        <v>0.05272962876517547</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6452094654316003</v>
+        <v>0.01790380406832535</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6494510142439311</v>
+        <v>0.1826826235708774</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1308423870230741</v>
+        <v>0.6313448264993933</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1693788805733901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6729786222428724</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3002141782049687</v>
+        <v>0.0103433063001453</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3579333698934</v>
+        <v>0.1179356357964507</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7615654756986467</v>
+        <v>0.6452094654316003</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7298502540390175</v>
+        <v>0.6494510142439311</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1308423870230741</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.01481535530409961</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2325406544071081</v>
+        <v>0.6729786222428724</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1182585995065328</v>
+        <v>0.3002141782049687</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2713054378806831</v>
+        <v>0.3579333698934</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4900625707136851</v>
+        <v>0.7615654756986467</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7298502540390175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.3550580898225097</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4928946040496128</v>
+        <v>0.01481535530409961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08249583234103358</v>
+        <v>0.2325406544071081</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2503695352372854</v>
+        <v>0.1182585995065328</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5375548074764223</v>
+        <v>0.2713054378806831</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4900625707136851</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5916151625851847</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4354054072346276</v>
+        <v>0.3550580898225097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003410487001818271</v>
+        <v>0.4928946040496128</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3770081361303883</v>
+        <v>0.08249583234103358</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8902749141634188</v>
+        <v>0.2503695352372854</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5375548074764223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.02271435648557752</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08666894847712632</v>
+        <v>0.5916151625851847</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3737579242223206</v>
+        <v>0.4354054072346276</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6421776196429159</v>
+        <v>0.003410487001818271</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9744023541799367</v>
+        <v>0.3770081361303883</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.8902749141634188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.6068358232257332</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3465671576612133</v>
+        <v>0.02271435648557752</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01594270882196579</v>
+        <v>0.08666894847712632</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4063482863978195</v>
+        <v>0.3737579242223206</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4646160463998507</v>
+        <v>0.6421776196429159</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9744023541799367</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.4553106584941116</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5321285767738109</v>
+        <v>0.6068358232257332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03516902773868719</v>
+        <v>0.3465671576612133</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6474029564806199</v>
+        <v>0.01594270882196579</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8768647191619858</v>
+        <v>0.4063482863978195</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4646160463998507</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.008005739719970317</v>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4169000671394101</v>
+        <v>0.4553106584941116</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2102609464838567</v>
+        <v>0.5321285767738109</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9586929832128837</v>
+        <v>0.03516902773868719</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1724936063635346</v>
+        <v>0.6474029564806199</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.8768647191619858</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9365638916667738</v>
+        <v>0.008005739719970317</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01284673358976765</v>
+        <v>0.4169000671394101</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3269165355725512</v>
+        <v>0.2102609464838567</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7244219885280205</v>
+        <v>0.9586929832128837</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1724936063635346</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.6220078895726201</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1834508483556516</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05016105325702849</v>
+        <v>0.9365638916667738</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06388557911355938</v>
+        <v>0.01284673358976765</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5827650980391876</v>
+        <v>0.3269165355725512</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7244219885280205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.8991199567740973</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6295346690680274</v>
+        <v>0.6220078895726201</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1398460578323279</v>
+        <v>0.1834508483556516</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8283688489353837</v>
+        <v>0.05016105325702849</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6623557433114529</v>
+        <v>0.06388557911355938</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5827650980391876</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.6334384569678687</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6891256075559776</v>
+        <v>0.8991199567740973</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01554001554001554</v>
+        <v>0.6295346690680274</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05497275014583354</v>
+        <v>0.1398460578323279</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0675990675990676</v>
+        <v>0.8283688489353837</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6623557433114529</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.03404343214347452</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001512887466747595</v>
+        <v>0.6334384569678687</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09827195171994678</v>
+        <v>0.6891256075559776</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001036509565820647</v>
+        <v>0.01554001554001554</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01349695605568359</v>
+        <v>0.05497275014583354</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0675990675990676</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.02139471610925129</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01093074558090539</v>
+        <v>0.03404343214347452</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4966758035508202</v>
+        <v>0.001512887466747595</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06728181312793129</v>
+        <v>0.09827195171994678</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1393834844824834</v>
+        <v>0.001036509565820647</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01349695605568359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>6.208592851368702e-07</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0004263127803664844</v>
+        <v>0.02139471610925129</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5208272193824912</v>
+        <v>0.01093074558090539</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01167634483809112</v>
+        <v>0.4966758035508202</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0052388532276893</v>
+        <v>0.06728181312793129</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1393834844824834</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.2295351707116413</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.961058814552752</v>
+        <v>6.208592851368702e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2634865134865135</v>
+        <v>0.0004263127803664844</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.5208272193824912</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4173179761415056</v>
+        <v>0.01167634483809112</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0052388532276893</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.1530418841588201</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6532367441100604</v>
+        <v>0.2295351707116413</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3074341659273954</v>
+        <v>0.961058814552752</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3288810831191051</v>
+        <v>0.2634865134865135</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1530418841588201</v>
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4173179761415056</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1.415537422123021e-05</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001447834970502444</v>
+        <v>0.1530418841588201</v>
       </c>
       <c r="D39" t="n">
-        <v>4.728500585018512e-05</v>
+        <v>0.6532367441100604</v>
       </c>
       <c r="E39" t="n">
-        <v>8.166169175927198e-08</v>
+        <v>0.3074341659273954</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0001882175795219273</v>
+        <v>0.3288810831191051</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1530418841588201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5993819586698879</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002659035214735807</v>
+        <v>2.656396824319165e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5970285369666561</v>
+        <v>0.0001463493992414256</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1679212583303107</v>
+        <v>3.161457000423004e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2325406544071081</v>
+        <v>4.406550794571112e-09</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.887585532746823e-05</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.473828321041964</v>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.342011565840154</v>
+        <v>0.0168134005645241</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001785317152239513</v>
+        <v>0.1680191782646671</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7965201484910589</v>
+        <v>0.5498554118785749</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00272995338130412</v>
+        <v>0.0007578242895012787</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001534448024011591</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.07206320905091358</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06253125328749033</v>
+        <v>0.5993819586698879</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05650728603074183</v>
+        <v>0.0002659035214735807</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8550361968321086</v>
+        <v>0.5970285369666561</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002914255399433271</v>
+        <v>0.1679212583303107</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2325406544071081</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.1619724104801261</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001828237122354769</v>
+        <v>0.473828321041964</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7545787545787546</v>
+        <v>0.342011565840154</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9044230538733476</v>
+        <v>0.001785317152239513</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.7965201484910589</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.00272995338130412</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.001232171935925456</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>3.508670396567327e-06</v>
+        <v>0.07206320905091358</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02116699156773605</v>
+        <v>0.06253125328749033</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02908673434131497</v>
+        <v>0.05650728603074183</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07646728770959502</v>
+        <v>0.8550361968321086</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.002914255399433271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2.834160825494293e-05</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002840110589867792</v>
+        <v>0.1619724104801261</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.0001828237122354769</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3158714347521603</v>
+        <v>0.7545787545787546</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4972501245865969</v>
+        <v>0.9044230538733476</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5402913746074198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>4.570592805886923e-05</v>
+        <v>0.0007916231200871516</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5621878121878122</v>
+        <v>3.798405142395575e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7339899249173781</v>
+        <v>0.005579946348994645</v>
       </c>
       <c r="F46" t="n">
-        <v>0.331387096247615</v>
+        <v>0.0687416532425125</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02898772953823356</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.02052196169843229</v>
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02066822066822067</v>
+        <v>0.121141516004118</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8518148518148518</v>
+        <v>3.706810063420917e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1199650031218789</v>
+        <v>0.557350369626068</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8883587001234061</v>
+        <v>0.1145015666573956</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5125117166055685</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.6533789106936937</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001563142739613328</v>
+        <v>2.834160825494293e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.002840110589867792</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8613108735500936</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2893148323819877</v>
+        <v>0.3158714347521603</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.4972501245865969</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>7.925071170933247e-05</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0002331897187039015</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5804112384153828</v>
+        <v>4.570592805886923e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0110255977772331</v>
+        <v>0.5621878121878122</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6573133414517081</v>
+        <v>0.7339899249173781</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.331387096247615</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.6533789106936937</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
+        <v>0.02052196169843229</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.02066822066822067</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.4135864135864136</v>
-      </c>
       <c r="E50" t="n">
-        <v>0.8414805811217939</v>
+        <v>0.8518148518148518</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4234471410941999</v>
+        <v>0.1199650031218789</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8883587001234061</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.2056671796173555</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02064993829699712</v>
+        <v>0.9061856157549283</v>
       </c>
       <c r="D51" t="n">
-        <v>0.344988344988345</v>
+        <v>0.00109044520887287</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.8429288944105098</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.8205558377885043</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04215659915471165</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.2300904491284602</v>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5053613053613053</v>
+        <v>0.1454815715685281</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2948717948717949</v>
+        <v>0.009232689507289048</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0.741723331035486</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0.2430291138576491</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.2378329272398489</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.7913367801006604</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3447042220069576</v>
+        <v>2.467621394127068e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0009872480460715754</v>
+        <v>6.590700858776189e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7700918467147326</v>
+        <v>0.3702946155603408</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7913367801006604</v>
+        <v>0.03024106890395362</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.5349976496436895</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.965400612459436</v>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236985236985237</v>
+        <v>0.2366770671303493</v>
       </c>
       <c r="D54" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.02458412133781418</v>
       </c>
       <c r="E54" t="n">
-        <v>0.515317409913256</v>
+        <v>0.4372387172832112</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.002273537547794429</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.3008271959412008</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1474701177648358</v>
+        <v>0.6533789106936937</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04005621699687032</v>
+        <v>0.02066822066822067</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5347446449619333</v>
+        <v>0.4135864135864136</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5823193735766927</v>
+        <v>0.8414805811217939</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.4234471410941999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.1041098896602268</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3912672792826394</v>
+        <v>0.2056671796173555</v>
       </c>
       <c r="D56" t="n">
-        <v>0.000666000666000666</v>
+        <v>0.02064993829699712</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8633332895365006</v>
+        <v>0.344988344988345</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1041098896602268</v>
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.1728141139905846</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8867749897161661</v>
+        <v>0.2300904491284602</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2843822843822844</v>
+        <v>0.5053613053613053</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8794275253645891</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.2364447155723038</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4922577422577423</v>
+        <v>0.7913367801006604</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3676767676767677</v>
+        <v>0.3447042220069576</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3304667624494304</v>
+        <v>0.0009872480460715754</v>
       </c>
       <c r="F58" t="n">
-        <v>0.40824534942182</v>
+        <v>0.7700918467147326</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7913367801006604</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.7618264088852323</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2634865134865135</v>
+        <v>0.965400612459436</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07272727272727274</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8359944985248412</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F59" t="n">
-        <v>0.236985236985237</v>
+        <v>0.515317409913256</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5147858677270442</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.6533789106936937</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236985236985237</v>
+        <v>0.3008271959412008</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07210567210567211</v>
+        <v>0.1474701177648358</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1824665343550301</v>
+        <v>0.04005621699687032</v>
       </c>
       <c r="F60" t="n">
-        <v>0.967435545139537</v>
+        <v>0.5347446449619333</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5823193735766927</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.5402913746074198</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.40824534942182</v>
+        <v>0.1041098896602268</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9497169497169498</v>
+        <v>0.3912672792826394</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7668240806643668</v>
+        <v>0.000666000666000666</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1728141139905846</v>
+        <v>0.8633332895365006</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.1041098896602268</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0.1728141139905846</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.8867749897161661</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6997327763594273</v>
+        <v>0.2843822843822844</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.8794275253645891</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.001616026079602008</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1.60216705528935e-06</v>
+        <v>0.2364447155723038</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5521336777877963</v>
+        <v>0.4922577422577423</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2344369889196074</v>
+        <v>0.3676767676767677</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7386861701903167</v>
+        <v>0.3304667624494304</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.40824534942182</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.178363899843974</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00599818589412051</v>
+        <v>0.7618264088852323</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3601927994949283</v>
+        <v>0.2634865134865135</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2412585031531986</v>
+        <v>0.07272727272727274</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0.8359944985248412</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.236985236985237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.06705237086818633</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.004332900030744769</v>
+        <v>0.6533789106936937</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2891116966965415</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1476013976260824</v>
+        <v>0.07210567210567211</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2507800804447518</v>
+        <v>0.1824665343550301</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.967435545139537</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.1864404631274125</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0001030341649342682</v>
+        <v>0.5402913746074198</v>
       </c>
       <c r="D66" t="n">
-        <v>5.271468323674538e-05</v>
+        <v>0.40824534942182</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1862827756096458</v>
+        <v>0.9497169497169498</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5596689271994115</v>
+        <v>0.7668240806643668</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.1728141139905846</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>4.504087905000833e-06</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0002622403088409687</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1205826762519681</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9717258916676981</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2930632585756785</v>
+        <v>0.6997327763594273</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6964669317610493</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2.395424410632698e-07</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.003580101168742084</v>
+        <v>0.001616026079602008</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1877948387384052</v>
+        <v>1.60216705528935e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>1.47837850016573e-07</v>
+        <v>0.5521336777877963</v>
       </c>
       <c r="F68" t="n">
-        <v>5.644034645788488e-05</v>
+        <v>0.2344369889196074</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.7386861701903167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.1330728095433978</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.178363899843974</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1898101898101898</v>
+        <v>0.00599818589412051</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09597948641814748</v>
+        <v>0.3601927994949283</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1805694305694306</v>
+        <v>0.2412585031531986</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.1011015128662187</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.236985236985237</v>
+        <v>0.06705237086818633</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05923488276429453</v>
+        <v>0.004332900030744769</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6351672635718316</v>
+        <v>0.2891116966965415</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5726038667215138</v>
+        <v>0.1476013976260824</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2507800804447518</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.3154166095342566</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1011015128662187</v>
+        <v>0.1864404631274125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6889110889110889</v>
+        <v>0.0001030341649342682</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0580855029876557</v>
+        <v>5.271468323674538e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4597559303441656</v>
+        <v>0.1862827756096458</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.5596689271994115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.967435545139537</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5956108994757296</v>
+        <v>4.504087905000833e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1853263041985794</v>
+        <v>0.0002622403088409687</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6673192468459636</v>
+        <v>0.1205826762519681</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7133031738784577</v>
+        <v>0.9717258916676981</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2930632585756785</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.967435545139537</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07723574482601518</v>
+        <v>2.572313578888661e-08</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5360139860139861</v>
+        <v>0.001643142434298129</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8814974521910136</v>
+        <v>0.1475013999026327</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0791793495755705</v>
+        <v>9.404379874744599e-09</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.607141817598636e-06</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.3074341659273954</v>
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1574899295225743</v>
+        <v>1.584030875461375e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4634032634032634</v>
+        <v>0.08604009392462883</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8801684549067255</v>
+        <v>0.001678855611009324</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3477455989106976</v>
+        <v>1.573120755272448e-05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.7835616052099432</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.7618264088852323</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4265379994109663</v>
+        <v>0.1330728095433978</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6125874125874127</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6982941528723372</v>
+        <v>0.1898101898101898</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.09597948641814748</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.1805694305694306</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.4876683534589304</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.001079790550202097</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8047785547785549</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6329163612952179</v>
+        <v>0.05923488276429453</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.6351672635718316</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.5726038667215138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.203071438365556</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.018326256539845</v>
+        <v>0.3154166095342566</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7103729603729605</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4151293810725478</v>
+        <v>0.6889110889110889</v>
       </c>
       <c r="F77" t="n">
+        <v>0.0580855029876557</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.4597559303441656</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.1478898997113604</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>2.301129306149136e-05</v>
+        <v>0.967435545139537</v>
       </c>
       <c r="D78" t="n">
-        <v>0.005711142795519263</v>
+        <v>0.5956108994757296</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5312385542468404</v>
+        <v>0.1853263041985794</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5686182086635944</v>
+        <v>0.6673192468459636</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.7133031738784577</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.4597559303441656</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6642318548206392</v>
+        <v>0.967435545139537</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7788655788655789</v>
+        <v>0.07723574482601518</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0.5360139860139861</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05532702591526122</v>
+        <v>0.8814974521910136</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0791793495755705</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.7750513736700824</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0.3074341659273954</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5358197358197359</v>
+        <v>0.1574899295225743</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5319352212322601</v>
+        <v>0.4634032634032634</v>
       </c>
       <c r="F80" t="n">
-        <v>0.055013832353979</v>
+        <v>0.8801684549067255</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.3477455989106976</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.8285570638511814</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2476328047600628</v>
+        <v>0.7618264088852323</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1205905205905206</v>
+        <v>0.4265379994109663</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4151293810725478</v>
+        <v>0.6125874125874127</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7396133278486219</v>
+        <v>0.6982941528723372</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6533789106936937</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.4747017688194159</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2439297221420511</v>
+        <v>0.4876683534589304</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2086247086247086</v>
+        <v>0.001079790550202097</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8566018180876993</v>
+        <v>0.8047785547785549</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6008844097079391</v>
+        <v>0.6329163612952179</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.2054682831983818</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0.203071438365556</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4639403537057452</v>
+        <v>0.018326256539845</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2506917798689591</v>
+        <v>0.7103729603729605</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1682272708635272</v>
+        <v>0.4151293810725478</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4597559303441656</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.03725304028104262</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07723574482601518</v>
+        <v>0.1480007259847727</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1424248803045417</v>
+        <v>1.158658250724429e-05</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1348909545095918</v>
+        <v>0.002091492660477514</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2362390735919851</v>
+        <v>0.2600045389797606</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.3523259205952687</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.3686003611597196</v>
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02415479315982097</v>
+        <v>0.121141516004118</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3854322436611779</v>
+        <v>1.769753727071488e-05</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5282230364968106</v>
+        <v>0.0002431353712812756</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1211154630850481</v>
+        <v>0.1080507143861863</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.2571900461544617</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.07904776203659057</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.05193759572394502</v>
+        <v>0.4597559303441656</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2300904491284602</v>
+        <v>0.6642318548206392</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8146190099905082</v>
+        <v>0.7788655788655789</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5954494752210773</v>
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.05532702591526122</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.2300904491284602</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3353308495068514</v>
+        <v>0.7750513736700824</v>
       </c>
       <c r="D87" t="n">
-        <v>0.755691342054514</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4232423767389196</v>
+        <v>0.5358197358197359</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5633732305249262</v>
+        <v>0.5319352212322601</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.055013832353979</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.02108547103525801</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1910287005329572</v>
+        <v>0.8285570638511814</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6230455308379078</v>
+        <v>0.2476328047600628</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1724151026113812</v>
+        <v>0.1205905205905206</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1857112804447995</v>
+        <v>0.4151293810725478</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.7396133278486219</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.01991016304381737</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3093797372796825</v>
+        <v>0.4747017688194159</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8706620454734711</v>
+        <v>0.2439297221420511</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4885138377182608</v>
+        <v>0.2086247086247086</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00510561208027231</v>
+        <v>0.8566018180876993</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.6008844097079391</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.9417327745768896</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9394416580785075</v>
+        <v>0.2054682831983818</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1078773060677835</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2397677701871594</v>
+        <v>0.4639403537057452</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02728728144931691</v>
+        <v>0.2506917798689591</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.1682272708635272</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.6248840480349922</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8097797706434724</v>
+        <v>0.03725304028104262</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6248840480349922</v>
+        <v>0.07723574482601518</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4306976120658084</v>
+        <v>0.1424248803045417</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4498681706765151</v>
+        <v>0.1348909545095918</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2362390735919851</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.2222286986408264</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5964154160514543</v>
+        <v>0.3686003611597196</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2222286986408264</v>
+        <v>0.02415479315982097</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3835725856265404</v>
+        <v>0.3854322436611779</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4065253213452477</v>
+        <v>0.5282230364968106</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.1211154630850481</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.4267767365329836</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0.003568628436933387</v>
+        <v>0.07904776203659057</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.05193759572394502</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1201964415000217</v>
+        <v>0.2300904491284602</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0.8146190099905082</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.5954494752210773</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.859819205054158</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001086246625822034</v>
+        <v>0.2300904491284602</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1948717948717948</v>
+        <v>0.3353308495068514</v>
       </c>
       <c r="E94" t="n">
-        <v>0.214300095273175</v>
+        <v>0.755691342054514</v>
       </c>
       <c r="F94" t="n">
-        <v>0.859819205054158</v>
+        <v>0.4232423767389196</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.5633732305249262</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113944878650761</v>
+        <v>0.02108547103525801</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3822843822843822</v>
+        <v>0.1910287005329572</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9095950940534051</v>
+        <v>0.6230455308379078</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4807075277663513</v>
+        <v>0.1724151026113812</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.1857112804447995</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.4799286921459572</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.001086246625822034</v>
+        <v>0.01991016304381737</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6058412176059235</v>
+        <v>0.3093797372796825</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5344093590728781</v>
+        <v>0.8706620454734711</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5364994693194564</v>
+        <v>0.4885138377182608</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.00510561208027231</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.4807075277663513</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4234471410941999</v>
+        <v>0.9417327745768896</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5053613053613053</v>
+        <v>0.9394416580785075</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2666161882749017</v>
+        <v>0.1078773060677835</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1995886466474702</v>
+        <v>0.2397677701871594</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02728728144931691</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.437942822899974</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.00166933664274255</v>
+        <v>0.6248840480349922</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3599341834635952</v>
+        <v>0.8097797706434724</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3171525807066966</v>
+        <v>0.6248840480349922</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2893148323819877</v>
+        <v>0.4306976120658084</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.4498681706765151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.2163730080576375</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04226010608395664</v>
+        <v>0.2222286986408264</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3212669683257919</v>
+        <v>0.5964154160514543</v>
       </c>
       <c r="E99" t="n">
-        <v>0.683846186890438</v>
+        <v>0.2222286986408264</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2893148323819877</v>
+        <v>0.3835725856265404</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.4065253213452477</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.859819205054158</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04226010608395664</v>
+        <v>0.4267767365329836</v>
       </c>
       <c r="D100" t="n">
-        <v>0.04640065816536405</v>
+        <v>0.003568628436933387</v>
       </c>
       <c r="E100" t="n">
-        <v>0.05091323977665286</v>
+        <v>0.8148087206910737</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7910815129207817</v>
+        <v>0.1201964415000217</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.2358700123406006</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6058412176059235</v>
+        <v>0.859819205054158</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8784770784770783</v>
+        <v>0.001086246625822034</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8324207638940982</v>
+        <v>0.1948717948717948</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3703825586178527</v>
+        <v>0.214300095273175</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.859819205054158</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5414232825997531</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1995886466474702</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5737373737373737</v>
+        <v>0.113944878650761</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6737416960378539</v>
+        <v>0.3822843822843822</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7429864253393665</v>
+        <v>0.9095950940534051</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.4807075277663513</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.1780423861018503</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.4799286921459572</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3817750795788453</v>
+        <v>0.001086246625822034</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8079161864084929</v>
+        <v>0.6058412176059235</v>
       </c>
       <c r="F103" t="n">
-        <v>0.005836721730910094</v>
+        <v>0.5344093590728781</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.5364994693194564</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.9296365245070707</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C104" t="n">
+        <v>0.4807075277663513</v>
+      </c>
+      <c r="D104" t="n">
         <v>0.4234471410941999</v>
       </c>
-      <c r="D104" t="n">
-        <v>0.3703825586178527</v>
-      </c>
       <c r="E104" t="n">
-        <v>0.2317829179659263</v>
+        <v>0.5053613053613053</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3772246166674534</v>
+        <v>0.2666161882749017</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.1995886466474702</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.8148087206910737</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.959129759129759</v>
+        <v>0.437942822899974</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5737373737373737</v>
+        <v>0.00166933664274255</v>
       </c>
       <c r="E105" t="n">
-        <v>0.95802887169046</v>
+        <v>0.3599341834635952</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.3171525807066966</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.2893148323819877</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2163730080576375</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.04226010608395664</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.3212669683257919</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.683846186890438</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.2893148323819877</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.007897984368572603</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.4234471410941999</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.5117481418843147</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.8883587001234061</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.5414232825997531</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5737373737373737</v>
+        <v>0.859819205054158</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5053613053613053</v>
+        <v>0.04226010608395664</v>
       </c>
       <c r="E107" t="n">
-        <v>0.647089700178523</v>
+        <v>0.04640065816536405</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.05091323977665286</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.7910815129207817</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.1530418841588201</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.2358700123406006</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8967503085150144</v>
+        <v>0.6058412176059235</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3477399194205458</v>
+        <v>0.8784770784770783</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1779095949869824</v>
+        <v>0.8324207638940982</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.3703825586178527</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.1577043874630777</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0.5414232825997531</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4418026418026417</v>
+        <v>0.1995886466474702</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1810585477112948</v>
+        <v>0.5737373737373737</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1853263041985794</v>
+        <v>0.6737416960378539</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7429864253393665</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.6909509366043816</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6741981971505068</v>
+        <v>0.1780423861018503</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1303807303807304</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.07713073420297641</v>
+        <v>0.3817750795788453</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6058412176059235</v>
+        <v>0.8079161864084929</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.005836721730910094</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5262434902656008</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0955644516161204</v>
+        <v>0.9296365245070707</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6748915230109515</v>
+        <v>0.4234471410941999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5371451443754227</v>
+        <v>0.3703825586178527</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09940357565556361</v>
+        <v>0.2317829179659263</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.3772246166674534</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.113944878650761</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8168005804132161</v>
+        <v>0.8148087206910737</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6943278943278944</v>
+        <v>0.959129759129759</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8764225235799469</v>
+        <v>0.5737373737373737</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5414232825997531</v>
+        <v>0.95802887169046</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.3477455989106976</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.004848762721678938</v>
+        <v>0.2893148323819877</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0.007897984368572603</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5554024939348726</v>
+        <v>0.4234471410941999</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0.5117481418843147</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8883587001234061</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.7750513736700824</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01601099081051716</v>
+        <v>0.5414232825997531</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7618264088852323</v>
+        <v>0.5737373737373737</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6999981864252365</v>
+        <v>0.5053613053613053</v>
       </c>
       <c r="F114" t="n">
-        <v>0.121989121989122</v>
+        <v>0.647089700178523</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.40824534942182</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07540971966202824</v>
+        <v>0.1530418841588201</v>
       </c>
       <c r="D115" t="n">
         <v>0.6964669317610493</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1127423660824076</v>
+        <v>0.8967503085150144</v>
       </c>
       <c r="F115" t="n">
-        <v>0.40824534942182</v>
+        <v>0.3477399194205458</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.1779095949869824</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.2364447155723038</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.00166933664274255</v>
+        <v>0.1577043874630777</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02664655605832076</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6047728544859003</v>
+        <v>0.4418026418026417</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4597559303441656</v>
+        <v>0.1810585477112948</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.1853263041985794</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.054527172174231</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.04088849469666719</v>
+        <v>0.6909509366043816</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5726038667215138</v>
+        <v>0.6741981971505068</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01611247404641657</v>
+        <v>0.1303807303807304</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.07713073420297641</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.6058412176059235</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.8382564863858263</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1530418841588201</v>
+        <v>0.5262434902656008</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7133031738784577</v>
+        <v>0.0955644516161204</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8541001374821646</v>
+        <v>0.6748915230109515</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1779095949869824</v>
+        <v>0.5371451443754227</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.09940357565556361</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.1530418841588201</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06595477070719091</v>
+        <v>0.113944878650761</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7133031738784577</v>
+        <v>0.8168005804132161</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5587003212109766</v>
+        <v>0.6943278943278944</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3074341659273954</v>
+        <v>0.8764225235799469</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.5414232825997531</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5956108994757296</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2527908475104067</v>
+        <v>0.3477455989106976</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1011015128662187</v>
+        <v>0.004848762721678938</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8938268460426489</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.965400612459436</v>
+        <v>0.5554024939348726</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.8285570638511814</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1011015128662187</v>
+        <v>0.7750513736700824</v>
       </c>
       <c r="D121" t="n">
+        <v>0.01601099081051716</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.7618264088852323</v>
       </c>
-      <c r="E121" t="n">
-        <v>0.9571673184928212</v>
-      </c>
       <c r="F121" t="n">
-        <v>0.8967503085150144</v>
+        <v>0.6999981864252365</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.121989121989122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.1728141139905846</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.203071438365556</v>
+        <v>0.40824534942182</v>
       </c>
       <c r="D122" t="n">
+        <v>0.07540971966202824</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.6964669317610493</v>
       </c>
-      <c r="E122" t="n">
-        <v>0.7337299956962472</v>
-      </c>
       <c r="F122" t="n">
-        <v>0.6334384569678687</v>
+        <v>0.1127423660824076</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.40824534942182</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.9025232501776794</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0.164938177051956</v>
+        <v>0.2364447155723038</v>
       </c>
       <c r="D123" t="n">
-        <v>0.437942822899974</v>
+        <v>0.00166933664274255</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5587003212109766</v>
+        <v>0.02664655605832076</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2056671796173555</v>
+        <v>0.6047728544859003</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4597559303441656</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.03733641592066286</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1309111278962908</v>
+        <v>0.054527172174231</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.04088849469666719</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0.5726038667215138</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8382564863858263</v>
+        <v>0.01611247404641657</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.5147858677270442</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2.271830760697321e-06</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>4.219587632352974e-06</v>
+        <v>0.8382564863858263</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0002951686826234254</v>
+        <v>0.1530418841588201</v>
       </c>
       <c r="E125" t="n">
-        <v>1.52205739419292e-07</v>
+        <v>0.7133031738784577</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00275870990580792</v>
+        <v>0.8541001374821646</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.1779095949869824</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.6533789106936937</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0.07232278628720068</v>
+        <v>0.1530418841588201</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7750513736700824</v>
+        <v>0.06595477070719091</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4547346491530376</v>
+        <v>0.7133031738784577</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0.5587003212109766</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.3074341659273954</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.5956108994757296</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8967503085150144</v>
+        <v>0.2527908475104067</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8375569438370697</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="F127" t="n">
-        <v>0.40824534942182</v>
+        <v>0.8938268460426489</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.965400612459436</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1.803826381526624e-07</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>2.11131488437444e-07</v>
+        <v>0.8285570638511814</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0002504131805815364</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="E128" t="n">
-        <v>0.059665914938716</v>
+        <v>0.7618264088852323</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0003821914080474917</v>
+        <v>0.9571673184928212</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.8967503085150144</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.06619257972219345</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0791793495755705</v>
+        <v>0.1728141139905846</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7133031738784577</v>
+        <v>0.203071438365556</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5587003212109766</v>
+        <v>0.6964669317610493</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4876683534589304</v>
+        <v>0.7337299956962472</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.6334384569678687</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.06089183610091669</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.217097847380246</v>
+        <v>0.9025232501776794</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7142823537989498</v>
+        <v>0.164938177051956</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2539271174425302</v>
+        <v>0.437942822899974</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04269714068819343</v>
+        <v>0.5587003212109766</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.2056671796173555</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.03427944604415192</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.236985236985237</v>
+        <v>0.03733641592066286</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4747017688194159</v>
+        <v>0.1309111278962908</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8809959867427637</v>
+        <v>0.5402913746074198</v>
       </c>
       <c r="F131" t="n">
-        <v>0.203071438365556</v>
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.8382564863858263</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.006216006216006216</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1011015128662187</v>
+        <v>1.072300812087577e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6690662278897572</v>
+        <v>5.938695249755105e-07</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9571673184928212</v>
+        <v>5.609326304706845e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8867749897161661</v>
+        <v>1.35812441411922e-08</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0007658865249428802</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.01601099081051716</v>
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1113468865331404</v>
+        <v>0.1208690782245162</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113944878650761</v>
+        <v>0.6605449361366671</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6792246010177549</v>
+        <v>0.004156926194484266</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6588432549492806</v>
+        <v>8.58091338187761e-06</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.331121875713906e-06</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.03165088016995849</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.002249964199063247</v>
+        <v>0.6533789106936937</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7777577411082133</v>
+        <v>0.07232278628720068</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5214594328866909</v>
+        <v>0.7750513736700824</v>
       </c>
       <c r="F134" t="n">
-        <v>0.09770487650101436</v>
+        <v>0.4547346491530376</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.03427944604415192</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6334384569678687</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>0.001563142739613328</v>
+        <v>0.5147858677270442</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6582988776466976</v>
+        <v>0.8967503085150144</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8148087206910737</v>
+        <v>0.8375569438370697</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.40824534942182</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.967435545139537</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3074341659273954</v>
+        <v>1.803826381526624e-07</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01044427110137023</v>
+        <v>2.11131488437444e-07</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1738507160282653</v>
+        <v>0.0002504131805815364</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0.059665914938716</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0003821914080474917</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.4597559303441656</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.06619257972219345</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09271904566022213</v>
+        <v>0.0791793495755705</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8475535951179215</v>
+        <v>0.7133031738784577</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3703825586178527</v>
+        <v>0.5587003212109766</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.4876683534589304</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.3477455989106976</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9025232501776794</v>
+        <v>0.06089183610091669</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5962416305866567</v>
+        <v>0.217097847380246</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0.7142823537989498</v>
       </c>
       <c r="F138" t="n">
-        <v>0.04226010608395664</v>
+        <v>0.2539271174425302</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.04269714068819343</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.09416637543787974</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4876683534589304</v>
+        <v>0.03427944604415192</v>
       </c>
       <c r="D139" t="n">
-        <v>0.001086246625822034</v>
+        <v>0.236985236985237</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3802760833283279</v>
+        <v>0.4747017688194159</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5962416305866567</v>
+        <v>0.8809959867427637</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.203071438365556</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.09416637543787974</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.006216006216006216</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007897984368572603</v>
+        <v>0.1011015128662187</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0.6690662278897572</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2765939942410531</v>
+        <v>0.9571673184928212</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8867749897161661</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.1728141139905846</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5147858677270442</v>
+        <v>0.01601099081051716</v>
       </c>
       <c r="D141" t="n">
-        <v>0.02064993829699712</v>
+        <v>0.1113468865331404</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8397135013018749</v>
+        <v>0.113944878650761</v>
       </c>
       <c r="F141" t="n">
-        <v>0.005244755244755245</v>
+        <v>0.6792246010177549</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.6588432549492806</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.02664655605832076</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8867749897161661</v>
+        <v>0.03165088016995849</v>
       </c>
       <c r="D142" t="n">
-        <v>0.07115384615384615</v>
+        <v>0.002249964199063247</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6585007180113081</v>
+        <v>0.7777577411082133</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7429864253393665</v>
+        <v>0.5214594328866909</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.09770487650101436</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.3074894566186813</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1212245030129166</v>
+        <v>0.03427944604415192</v>
       </c>
       <c r="D143" t="n">
-        <v>0.967435545139537</v>
+        <v>0.6334384569678687</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7023728565713185</v>
+        <v>0.001563142739613328</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9097218891455553</v>
+        <v>0.6582988776466976</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8148087206910737</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.5205228832757727</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3846730627355087</v>
+        <v>0.967435545139537</v>
       </c>
       <c r="D144" t="n">
-        <v>0.03763531378731424</v>
+        <v>0.3074341659273954</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3267292129367155</v>
+        <v>0.01044427110137023</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7337299956962472</v>
+        <v>0.1738507160282653</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.0791793495755705</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.513444337525733</v>
+        <v>0.4597559303441656</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5726038667215138</v>
+        <v>0.6964669317610493</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4347459779154463</v>
+        <v>0.09271904566022213</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7133031738784577</v>
+        <v>0.8475535951179215</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.3703825586178527</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.8330965530236862</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2731396700856868</v>
+        <v>0.3477455989106976</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1123965161978618</v>
+        <v>0.9025232501776794</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4613213943265947</v>
+        <v>0.5962416305866567</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5272591878694695</v>
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.04226010608395664</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.3447042220069576</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7913367801006604</v>
+        <v>0.09416637543787974</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0211339281291611</v>
+        <v>0.4876683534589304</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7382597635654166</v>
+        <v>0.001086246625822034</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9097218891455553</v>
+        <v>0.3802760833283279</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.5962416305866567</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.6775849579524755</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1858767323658758</v>
+        <v>0.09416637543787974</v>
       </c>
       <c r="D148" t="n">
-        <v>0.001706249368919596</v>
+        <v>0.5402913746074198</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3602889183098518</v>
+        <v>0.007897984368572603</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3447042220069576</v>
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.2765939942410531</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.3447042220069576</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9096542252801711</v>
+        <v>0.1728141139905846</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9097218891455553</v>
+        <v>0.5147858677270442</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0.02064993829699712</v>
       </c>
       <c r="F149" t="n">
-        <v>0.3846730627355087</v>
+        <v>0.8397135013018749</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.005244755244755245</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.8382564863858263</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9025232501776794</v>
+        <v>0.02664655605832076</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2364447155723038</v>
+        <v>0.8867749897161661</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6999981864252365</v>
+        <v>0.07115384615384615</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2364447155723038</v>
+        <v>0.6585007180113081</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.7429864253393665</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.5321285767738109</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1030019344040598</v>
+        <v>0.3074894566186813</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2930632585756785</v>
+        <v>0.1212245030129166</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6859384737841339</v>
+        <v>0.967435545139537</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1030019344040598</v>
+        <v>0.7023728565713185</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.9097218891455553</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.5956108994757296</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1912236181376817</v>
+        <v>0.5205228832757727</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3912672792826394</v>
+        <v>0.3846730627355087</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3628843214106182</v>
+        <v>0.03763531378731424</v>
       </c>
       <c r="F152" t="n">
-        <v>0.2703441406547801</v>
+        <v>0.3267292129367155</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.7337299956962472</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>5.388978027422974e-05</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0001010704481420718</v>
+        <v>0.0791793495755705</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0002061091154298469</v>
+        <v>0.513444337525733</v>
       </c>
       <c r="E153" t="n">
-        <v>1.69556998950334e-07</v>
+        <v>0.5726038667215138</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0003106603426391901</v>
+        <v>0.4347459779154463</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.7133031738784577</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.0791793495755705</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0.03733641592066286</v>
+        <v>0.8330965530236862</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.2731396700856868</v>
       </c>
       <c r="E154" t="n">
-        <v>0.03497702659218817</v>
+        <v>0.1123965161978618</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2703441406547801</v>
+        <v>0.4613213943265947</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.5272591878694695</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.2742812742812743</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5726038667215138</v>
+        <v>0.3447042220069576</v>
       </c>
       <c r="D155" t="n">
-        <v>0.965400612459436</v>
+        <v>0.7913367801006604</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2409066203396328</v>
+        <v>0.0211339281291611</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6964669317610493</v>
+        <v>0.7382597635654166</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.9097218891455553</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.437942822899974</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5402913746074198</v>
+        <v>0.6775849579524755</v>
       </c>
       <c r="D156" t="n">
-        <v>0.965400612459436</v>
+        <v>0.1858767323658758</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0.001706249368919596</v>
       </c>
       <c r="F156" t="n">
-        <v>0.967435545139537</v>
+        <v>0.3602889183098518</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.3447042220069576</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.3477455989106976</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.3447042220069576</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6533789106936937</v>
+        <v>0.9096542252801711</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6999981864252365</v>
+        <v>0.9097218891455553</v>
       </c>
       <c r="F157" t="n">
-        <v>0.5956108994757296</v>
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.3846730627355087</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.2703441406547801</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3074341659273954</v>
+        <v>0.8382564863858263</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8382564863858263</v>
+        <v>0.9025232501776794</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2298924994657628</v>
+        <v>0.2364447155723038</v>
       </c>
       <c r="F158" t="n">
-        <v>0.967435545139537</v>
+        <v>0.6999981864252365</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.2364447155723038</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.3154166095342566</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8967503085150144</v>
+        <v>0.5321285767738109</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3599341834635952</v>
+        <v>0.1030019344040598</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3053173481213631</v>
+        <v>0.2930632585756785</v>
       </c>
       <c r="F159" t="n">
-        <v>0.236985236985237</v>
+        <v>0.6859384737841339</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.1030019344040598</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.4193113242511399</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1200954351570896</v>
+        <v>0.5956108994757296</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9878422663352727</v>
+        <v>0.1912236181376817</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2330593612912244</v>
+        <v>0.3912672792826394</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1760497530486366</v>
+        <v>0.3628843214106182</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.2703441406547801</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.0001782949529238653</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01648865672767014</v>
+        <v>1.378260468540951e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0.0003141393937584641</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2473682729562733</v>
+        <v>7.855058358430566e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6707329801000557</v>
+        <v>0.4245485100380005</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.0002660065487586654</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>5.333908536378238e-06</v>
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C162" t="n">
-        <v>1.029025598050446e-06</v>
+        <v>8.014107701359831e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1052029192934054</v>
+        <v>3.015088363799094e-07</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4962254307300714</v>
+        <v>0.06185085151826708</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7292325560735091</v>
+        <v>0.2022871852241082</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.7067853437655578</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.388978027422974e-05</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0001010704481420718</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0002061091154298469</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.69556998950334e-07</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.0003106603426391901</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0791793495755705</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.03733641592066286</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6533789106936937</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.03497702659218817</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.2703441406547801</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.2742812742812743</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.5726038667215138</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.965400612459436</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.2409066203396328</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.6964669317610493</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.437942822899974</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.5402913746074198</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.965400612459436</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.967435545139537</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3477455989106976</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6533789106936937</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.6533789106936937</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.6999981864252365</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.5956108994757296</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.2703441406547801</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3074341659273954</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.8382564863858263</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.2298924994657628</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.967435545139537</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3154166095342566</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.8967503085150144</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3599341834635952</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.3053173481213631</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.236985236985237</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.4193113242511399</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1200954351570896</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.9878422663352727</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2330593612912244</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.1760497530486366</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0001782949529238653</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.01648865672767014</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.2473682729562733</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.6707329801000557</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
           <t>Molnupiravir</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B172" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.07478550011933321</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.7042596666864843</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.2233731772688732</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.03907700543815312</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.04401066096374268</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>0.0386798582385012</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>0.0001551193982131297</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>0.02258989717466463</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F173" t="n">
         <v>0.8230752531278416</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G173" t="n">
         <v>0.2623442080961232</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.01998753256378862</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.06751350829731115</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.1091895383686905</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.8048445128838806</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.1877198600787452</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.02964282422067496</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1595262868790264</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.5726473937741752</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.769213825650739</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.1789005188850333</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A172:A175"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>